--- a/xlsx/幾內亞比索_intext.xlsx
+++ b/xlsx/幾內亞比索_intext.xlsx
@@ -29,7 +29,7 @@
     <t>幾內亞共和國</t>
   </si>
   <si>
-    <t>政策_政策_美國_幾內亞比索</t>
+    <t>体育运动_体育运动_南非_幾內亞比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A%E6%AF%94%E7%BB%8D%E5%9B%BD%E6%97%97</t>
